--- a/onlineShopping/src/test/resources/Sdet37TestData.xlsx
+++ b/onlineShopping/src/test/resources/Sdet37TestData.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14925" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <sheet name="Furniture" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>TestID</t>
   </si>
@@ -188,13 +190,55 @@
   </si>
   <si>
     <t>Reseller</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Billing State</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Billing Pincode</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Shipping State</t>
+  </si>
+  <si>
+    <t>Shipping City</t>
+  </si>
+  <si>
+    <t>Shipping Pincode</t>
+  </si>
+  <si>
+    <t>L-748</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Flat no-503</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Banglore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -330,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -507,21 +551,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -530,7 +574,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -578,7 +622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -586,7 +630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -594,7 +638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -602,7 +646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -610,7 +654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -618,7 +662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -626,7 +670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -634,7 +678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -642,107 +686,107 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -754,14 +798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -769,7 +813,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -807,6 +851,84 @@
       </c>
       <c r="E3" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>208017</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2">
+        <v>500100</v>
       </c>
     </row>
   </sheetData>
